--- a/file2.xlsx
+++ b/file2.xlsx
@@ -424,10 +424,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G20"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -475,31 +475,46 @@
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
+          <t>COMPOSITION</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>COUNTRY OF ORIGIN</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>CUSTOMS CODE (H.S.)</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
           <t>SIZE</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>U.M</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>QTY</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>UNIT PRICE</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>VALUE</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr"/>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr"/>
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>C.I</t>
         </is>
@@ -511,110 +526,155 @@
           <t>KOMPANIYA LLC - IP LIZORKINA5th DONSKOY PASSAGE, 21B P1000000 119334 MOSCOWRUSSIAN FEDERATION</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>M6315</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>SOLE: 100% RUBBER UPPER: 100% GOAT LEATHER LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>M6315</t>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>34/44</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="D3" t="inlineStr">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>M6392</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 100% CALF LEATHER LINING: 85% LAMB LEATHER 15% GOAT LEATHER</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>M6392</t>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>34/44</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="D4" t="inlineStr">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>M6393</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 95% CALF LEATHER 5% PL LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>M6393</t>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>34/44</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="D5" t="inlineStr">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>M6550</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>SOLE: 100% RUBBER UPPER: 5% PL 3% CO 5% CALF LEATHER 85% LAMB LEATHER 2% AC LINING: 80% LAMB LEATHER 20% GOAT LEATHER</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>M6550</t>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>34/44</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="D6" t="inlineStr">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>M6553</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>SOLE: 100% RUBBER UPPER: 95% BUFFALO LEATHER 5% PL LINING: 100% WOOLLEN SHEEPSKIN</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>M6553</t>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>34/44</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="D7" t="inlineStr">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>M6560</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>SOLE: 100% RUBBER UPPER: 5% PL 65% CALF LEATHER 21% PU 5% PES 4% COT LINING:90% LAMB LEATHER 10% GOAT LEATHER</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>M6560</t>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>34/44</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="D8" t="inlineStr">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>M6562</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>SOLE: 100% RUBBER UPPER:  95% CALF LEATHER 5 % PL LINING: 80% LAMB LEATHER 20% GOAT LEATHER</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>M6562</t>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>34/44</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="D9" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>M6563</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>SOLE: 100% RUBBER UPPER:5% PL 65% CALF LEATHER 29% PA 1% PU LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="G10" t="inlineStr">
         <is>
           <t>M6563</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="D10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>SOLE: 100% RUBBER UPPER: 5% PL 65% BUFFALO LEATHER 29% PA 1% PU LINING 90% LAMB LEATHER 10% GOAT LEATHER</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>M6563</t>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>34/44</t>
         </is>
       </c>
     </row>
@@ -622,6 +682,11 @@
       <c r="G11" t="inlineStr">
         <is>
           <t>M6577</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>34/44</t>
         </is>
       </c>
     </row>

--- a/file2.xlsx
+++ b/file2.xlsx
@@ -16,13 +16,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -55,10 +62,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -424,97 +432,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>CUSTOMER</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Cust Code</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>VAT NO</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Page</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>ITEM Code</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>COMPOSITION</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>COUNTRY OF ORIGIN</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>CUSTOMS CODE (H.S.)</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>SIZE</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>U.M</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>QTY</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>UNIT PRICE</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>VALUE</t>
         </is>
       </c>
-      <c r="Q1" s="2" t="inlineStr"/>
-      <c r="R1" s="2" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr"/>
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>C.I</t>
         </is>
@@ -526,31 +534,69 @@
           <t>KOMPANIYA LLC - IP LIZORKINA5th DONSKOY PASSAGE, 21B P1000000 119334 MOSCOWRUSSIAN FEDERATION</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>M6315</t>
-        </is>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>RUSSL</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>773001001</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54564</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>02/08/2023</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SOLE: 100% RUBBER UPPER: 100% GOAT LEATHER LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>34/44</t>
+          <t>SOLE: 60% TPU 40% CALF LEATHER UPPER: 100% CALF LEATHER LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>64039118</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="G3" t="inlineStr">
         <is>
-          <t>M6392</t>
+          <t>M6592</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>GOTEBORGROSAANTICO</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 100% CALF LEATHER LINING: 85% LAMB LEATHER 15% GOAT LEATHER</t>
+          <t>SOLE: 60% TPU 40% CALF LEATHER UPPER: 100% CALF  LEATHER LINING: 100% LAMB LEATHER</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>64039998</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -562,12 +608,27 @@
     <row r="4">
       <c r="G4" t="inlineStr">
         <is>
-          <t>M6393</t>
+          <t>M6621</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>GOMMALACCANERO</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 95% CALF LEATHER 5% PL LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
+          <t>SOLE: 100% PU UPPER: 95% CALF LEATHER 5% PL LINING: 85% LAMB LEATHER 15% GOAT LEATHER</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>64039118</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -579,12 +640,27 @@
     <row r="5">
       <c r="G5" t="inlineStr">
         <is>
-          <t>M6550</t>
+          <t>M6628</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>CAMOSCIOCARAVAGGIO+M.NERO</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>SOLE: 100% RUBBER UPPER: 5% PL 3% CO 5% CALF LEATHER 85% LAMB LEATHER 2% AC LINING: 80% LAMB LEATHER 20% GOAT LEATHER</t>
+          <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 95% CALF LEATHER 5% PL LINING: 100% WOOLLEN SHEEPSKIN</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>64039118</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -596,101 +672,133 @@
     <row r="6">
       <c r="G6" t="inlineStr">
         <is>
-          <t>M6553</t>
+          <t>32108</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>CORTINANERO</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>SOLE: 100% RUBBER UPPER: 95% BUFFALO LEATHER 5% PL LINING: 100% WOOLLEN SHEEPSKIN</t>
+          <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 100% CALF LEATHER LINING: 100% CALF LEATHER</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>64039996</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>34/44</t>
+          <t>4/14</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="G7" t="inlineStr">
         <is>
-          <t>M6560</t>
+          <t>32109</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>CORTINANEROL.NERO</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>SOLE: 100% RUBBER UPPER: 5% PL 65% CALF LEATHER 21% PU 5% PES 4% COT LINING:90% LAMB LEATHER 10% GOAT LEATHER</t>
+          <t>SOLE: 100% EVA UPPER: 70% CALF LEATHER 30% EA LINING: 100% CALF LEATHER</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>64039116</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>34/44</t>
+          <t>4/14</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="G8" t="inlineStr">
         <is>
-          <t>M6562</t>
+          <t>32143</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>BINDERNOCE</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>SOLE: 100% RUBBER UPPER:  95% CALF LEATHER 5 % PL LINING: 80% LAMB LEATHER 20% GOAT LEATHER</t>
+          <t>SOLE: 100% EVA UPPER: 70% CALF LEATHER 30% EA LINING: 100% CALF LEATHER</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>64039116</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>34/44</t>
+          <t>4/14</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="G9" t="inlineStr">
         <is>
-          <t>M6563</t>
+          <t>32143</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>ANDERNERO</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>SOLE: 100% RUBBER UPPER:5% PL 65% CALF LEATHER 29% PA 1% PU LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
+          <t>SOLE: 100% EVA UPPER: 70% CALF LEATHER 30% EA LINING: 100% CALF LEATHER</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>64039116</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>34/44</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>M6563</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>SOLE: 100% RUBBER UPPER: 5% PL 65% BUFFALO LEATHER 29% PA 1% PU LINING 90% LAMB LEATHER 10% GOAT LEATHER</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>34/44</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>M6577</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>34/44</t>
+          <t>4/14</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/file2.xlsx
+++ b/file2.xlsx
@@ -16,20 +16,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -62,11 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -432,97 +424,96 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>CUSTOMER</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Cust Code</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>VAT NO</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Page</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>ITEM Code</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>COMPOSITION</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>COUNTRY OF ORIGIN</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>CUSTOMS CODE (H.S.)</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>SIZE</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>U.M</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>QTY</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>UNIT PRICE</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>VALUE</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr"/>
-      <c r="R1" s="3" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>C.I</t>
         </is>
@@ -546,7 +537,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>54564</t>
+          <t>54565</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -555,75 +546,98 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SOLE: 60% TPU 40% CALF LEATHER UPPER: 100% CALF LEATHER LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
+          <t>SOLE: 100% RUBBER UPPER: 100% CALF LEATHER LINING: 100% GOAT LEATHER</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>VIETNAM</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>64039118</t>
+          <t>64039116</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="G3" t="inlineStr">
         <is>
-          <t>M6592</t>
+          <t>MIDQUINN</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>GOTEBORGROSAANTICO</t>
+          <t>VAR651864039116</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>SOLE: 60% TPU 40% CALF LEATHER UPPER: 100% CALF  LEATHER LINING: 100% LAMB LEATHER</t>
+          <t>SOLE: 100% RUBBER UPPER: 100% CALF LEATHER LINING: 100% GOAT LEATHER</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>VIETNAM</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>64039998</t>
+          <t>64039116</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>34/44</t>
+          <t>34/47</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>MIDQUINN</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>12</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>123,00</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1.476,00</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="G4" t="inlineStr">
         <is>
-          <t>M6621</t>
+          <t>MIDQUIND</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>GOMMALACCANERO</t>
+          <t>MIDQUINNDVAR602264039118</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>SOLE: 100% PU UPPER: 95% CALF LEATHER 5% PL LINING: 85% LAMB LEATHER 15% GOAT LEATHER</t>
+          <t>SOLE: 100% RUBBER UPPER: 100% CALF LEATHER LINING: 100% GOAT LEATHER</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>VIETNAM</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -633,61 +647,103 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>34/44</t>
-        </is>
+          <t>34/47</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>MIDQUIND</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>16</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>123,00</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1.968,00</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="G5" t="inlineStr">
         <is>
-          <t>M6628</t>
+          <t>QUINN</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CAMOSCIOCARAVAGGIO+M.NERO</t>
+          <t>VAR599964039996</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 95% CALF LEATHER 5% PL LINING: 100% WOOLLEN SHEEPSKIN</t>
+          <t>SOLE: 100% RUBBER UPPER: 100% CALF LEATHER LINING: 100% GOAT LEATHER</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>VIETNAM</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>64039118</t>
+          <t>64039996</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>34/44</t>
-        </is>
+          <t>34/47</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>QUINN</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>117,00</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>936,00</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="G6" t="inlineStr">
         <is>
-          <t>32108</t>
+          <t>QUINN</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CORTINANERO</t>
+          <t>VAR600364039996</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 100% CALF LEATHER LINING: 100% CALF LEATHER</t>
+          <t>SOLE: 100% RUBBER UPPER: 100% CALF LEATHER LINING: 100% GOAT LEATHER</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>VIETNAM</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -697,104 +753,294 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>4/14</t>
-        </is>
+          <t>34/47</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>QUINN</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>117,00</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>936,00</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="G7" t="inlineStr">
         <is>
-          <t>32109</t>
+          <t>QUINN</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CORTINANEROL.NERO</t>
+          <t>VAR656464039996</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>SOLE: 100% EVA UPPER: 70% CALF LEATHER 30% EA LINING: 100% CALF LEATHER</t>
+          <t>SOLE: 100% RUBBER UPPER: 100% CALF LEATHER LINING: 100% GOAT LEATHER</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>VIETNAM</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>64039116</t>
+          <t>64039996</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>4/14</t>
-        </is>
+          <t>34/47</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>QUINN</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>20</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>117,00</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2.340,00</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="G8" t="inlineStr">
         <is>
-          <t>32143</t>
+          <t>RUSSELL</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>BINDERNOCE</t>
+          <t>VAR606864039996</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>SOLE: 100% EVA UPPER: 70% CALF LEATHER 30% EA LINING: 100% CALF LEATHER</t>
+          <t>SOLE: 95%% RUBBER 5% TPU UPPER: 100% CALF LEATHER LINING: 100% GOAT LEATHER</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>VIETNAM</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>64039116</t>
+          <t>64039996</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>4/14</t>
-        </is>
+          <t>34/47</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>RUSSELL</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>14</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>1.232,00</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="G9" t="inlineStr">
         <is>
-          <t>32143</t>
+          <t>RUSSELL</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>ANDERNERO</t>
+          <t>VAR642864039996</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>SOLE: 100% EVA UPPER: 70% CALF LEATHER 30% EA LINING: 100% CALF LEATHER</t>
+          <t>SOLE: 95% RUBBER 5% TPU UPPER: 85% CALF LEATHER 15% NY LINING: 86% GOAT LEATHER 14% CALF LEATHER</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>VIETNAM</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>64039116</t>
+          <t>64039996</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>4/14</t>
-        </is>
+          <t>34/47</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>RUSSELL</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>880,00</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>RUSSELL</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>VAR643064039996</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SOLE: 95% RUBBER 5% TPU UPPER: 85% CALF LEATHER 15% NY LINING: 86% GOAT LEATHER 14% CALF LEATHER</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VIETNAM</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>64039996</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>34/47</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>RUSSELL</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>12</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>1.056,00</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>RUSSELLD</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>VAR650464039998</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SOLE: 95% RUBBER 5% TPU UPPER: 85% CALF LEATHER 15% NY LINING: 100% GOAT LEATHER</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VIETNAM</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>64039998</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>34/47</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>RUSSELLD</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>8</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>92,00</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>736,00</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
